--- a/Documento de Diseño - ICE1.xlsx
+++ b/Documento de Diseño - ICE1.xlsx
@@ -68,18 +68,12 @@
     <t xml:space="preserve">Mecanica </t>
   </si>
   <si>
-    <t>Describir la jugabilidad y el control del juego. ¿Qué hace el jugador? ¿Qué usa para lograr sus objetivos?</t>
-  </si>
-  <si>
     <t>Tecnologia</t>
   </si>
   <si>
     <t>Publico</t>
   </si>
   <si>
-    <t>¿A quien va dirigido el juego?¿Quien lo jugara? Se puede describir una demografia como niños o adolecentes, sin embargo, es mas sencillo describir un tipo de jugador, ya sea casual, competitivo o veterano.</t>
-  </si>
-  <si>
     <t>Historial de versiones</t>
   </si>
   <si>
@@ -92,21 +86,12 @@
     <t xml:space="preserve">Mecanica del Juego </t>
   </si>
   <si>
-    <t>Esta seccion esencialmente describe lo que el jugador puede hacer y como puede hacerlo. Describir las acciones del jugados, de preferencia en secuencia a como sera el juego.</t>
-  </si>
-  <si>
     <t>Camara</t>
   </si>
   <si>
-    <t>Describir el tipo de camara que se utilizara, es decir, que perspectiva tiene el jugador ante lo que esta viendo en el juego, si es 3D o 2D, vista isometrica, en primera persona, etc.</t>
-  </si>
-  <si>
     <t>Perifericos</t>
   </si>
   <si>
-    <t>¿Qué perifericos utilizara el jugador para lograr los objetivos mencionados? Incluir  todos los que aplique: teclado, mause, gamepad, microfono, etc.</t>
-  </si>
-  <si>
     <t>Controles</t>
   </si>
   <si>
@@ -116,25 +101,13 @@
     <t>Puntaje</t>
   </si>
   <si>
-    <t>Explicar de que manera el juego se mantiene al tanto de los logros del jugador. Incluir tambien si existe una tabla de puntaje que compare los mismos entre los jugadores, ya sea de manera local o en linea.</t>
-  </si>
-  <si>
     <t>Guardar/Cargar</t>
   </si>
   <si>
-    <t>Describir como el jugador guarda su proceso de los objetivos logrados en el juego y como puede continuar los objetivos pendientes. De igual manera, describir los dispositivos de almacenamiento que se usaran o si el juego tiene un sistema de contraseñas.</t>
-  </si>
-  <si>
     <t>Estados del Juego</t>
   </si>
   <si>
-    <t>Un estado del juego se refiere al lugar en donde se encuentra el jugador durante el juego, es decir, si el jugador esta en el Menu Principal, esta jugando un Juego Multijugador, esta en el Menu de Pausa, etc. Los diagramas deben representar visualmente las relaciones entre los estados, si del Menu Principal se puede ir al Menu de Opciones, ¿Como lo hace?¿Que se ejecuta?¿Que interfaz muestra?</t>
-  </si>
-  <si>
     <t>Interfaces</t>
-  </si>
-  <si>
-    <t>Las interfaces dan la pauta a la interactividad que tiene el jugador con el juego, en esta seccion se debe describir la apariencia del juego, es decir, colores y tematica. Es importante dejar una impresión visual en el jugador y obviamente debe de estar relacionada con el concepto del juego.</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre de la pantalla </t>
@@ -311,11 +284,6 @@
     <t xml:space="preserve">Una imagen que muestre en concepto cómo se vería la pantalla. </t>
   </si>
   <si>
-    <t xml:space="preserve">Los juegos comúnmente se dividen en niveles o en mapas secuenciales dentro de los cuales se debe cumplir con ciertos objetivos para
-progresar en el juego. Existen juegos en los cuales los niveles solo cambian a razón de la dificultad y los objetivos siguen siendo los
-mismos, de igual manera se deben describir esos cambios en esta sección. </t>
-  </si>
-  <si>
     <t>El nombre del nivel.</t>
   </si>
   <si>
@@ -401,18 +369,12 @@
     <t>Enlistar las armas del enemigo.</t>
   </si>
   <si>
-    <t>Debe establecer la vision y el enfoque de juego que guiara el proyectoo hasta el final del proceso. El resumen debe mencionar los mas interasante, las ventajas y lo original del juego. ¿Por qué las personas jugarian este juego? La estructura de los parrafos es similar a un ensayo, una introduccion debe de abarcar todos los aspectos importantes mientras quelos parrafos subsecuentes deben detallar lo mencionado en la introduccion. Al final, la conclucion debe al lector entusiasmado por jugar el juego.</t>
-  </si>
-  <si>
     <t>Enzo Medina</t>
   </si>
   <si>
     <t>Ordenador Personal</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ClickTeam Fusion 2.5 Developer </t>
   </si>
   <si>
@@ -423,6 +385,42 @@
   </si>
   <si>
     <t>El juego es de carácter original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el juego va dirigido al publico adolecente </t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>es amigable y facil en jugavilidad por lo que al jugador le parecera algo simple.</t>
+  </si>
+  <si>
+    <t>El jugador debera avanzar en el juego hacia la izquierda evitando distintos obstaculos hasta llegar a la linea de meta, en ese transcurso el podra obtener monedas como recompenza y al finalizar se las computara como nivel de experiencia o record alcanzado en el videoJuego</t>
+  </si>
+  <si>
+    <t>Es un juego simple, de plataforma en donde el jugador sera caracterizado por el personaje principal que tendra que avanzar evitando obstaculos mortales y otros tramposos, en el transcurso se encontrara con algunos enemigos, en el que podra optar por matarlos o continuar jugando y al llegar a la linea de meta se volvera encontrar con otro enemigo pero en este caso es  principal al que tendra que vencer para rescatar al pricionero  y completar el videojuego. Por otro lado si el jugador no llegara a la linea de meta se tomaran los puntajes obtenidos en el juego como su record personal en el mismo.</t>
+  </si>
+  <si>
+    <t>Este contara con una vision 2D horizontal movement</t>
+  </si>
+  <si>
+    <t>pro el momento el jugador debera utilizar el teclado del orenador para poder interactuar con el juego</t>
+  </si>
+  <si>
+    <t>al finalizar el juego, ya sea por haberlo completado o haber perdido la vida al jugador se les computara las monedas y objetos de valor que hallo como puntaje personal que obtuvo en el videojuego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el Jugador tendra la obcion de hacer un ackup de sus logros en cualquier instante del juego, por otra parte el mismo juego guardara sus logros al salir de la aplicación con la condicion de llegar a un punto de control, y cuando acceda nuevamente a la aplicacion el jugador podra elegir su partida guardada desde su ubicacion personal o tendra la obcion de continual la partida en donde habia llegado al punto de control. </t>
+  </si>
+  <si>
+    <t>Las interfaces dan la pauta a la interactividad que tiene el jugador con el juego, en esta seccion se debe describir la apariencia del juego, es decir, colores y tematica. Es importante dejar una impresión visual en el jugador y obviamente debe de estar relacionada con el concepto del</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el juego tendra una pantalla inicial o menu del juego en el cual tendra las opciones de: Jugar al VideoJuego, Cargar y Salir, y en caso de que halla una partida guardada por el VideoJuego tendra la opcion de Continuar. </t>
+  </si>
+  <si>
+    <t>el juego constara de un solo nivel que amedida que pase el jugador por los puntos de control se aumentara un cirto grado de dificultad</t>
   </si>
 </sst>
 </file>
@@ -662,8 +660,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,21 +689,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -977,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,10 +986,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1002,10 +1000,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1020,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1036,7 +1034,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1044,7 +1042,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1052,7 +1050,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1060,7 +1058,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1068,7 +1066,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1076,183 +1074,183 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="1:2" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" ht="43.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="1:2" ht="43.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="9"/>
+      <c r="A20" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="13"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="15"/>
+      <c r="A26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="1:2" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="9"/>
+      <c r="A27" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="14"/>
+      <c r="A28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="9"/>
+      <c r="A29" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="14"/>
+      <c r="A34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="1:2" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="9"/>
+      <c r="A35" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="13"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,95 +1258,95 @@
         <v>11</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="14"/>
+      <c r="A46" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="1:2" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="16"/>
+      <c r="A47" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="14"/>
+      <c r="A48" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="17"/>
+      <c r="A49" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="10"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1356,15 +1354,15 @@
         <v>11</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1372,67 +1370,67 @@
         <v>2</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="15"/>
+      <c r="A59" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="12"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" s="17"/>
+      <c r="A60" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="10"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1440,205 +1438,212 @@
         <v>11</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="1:2" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="10"/>
+    </row>
+    <row r="70" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="10"/>
+    </row>
+    <row r="72" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="10"/>
+    </row>
+    <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="9"/>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="10"/>
+    </row>
+    <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77" spans="1:2" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="10"/>
+    </row>
+    <row r="78" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" s="9"/>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79" s="10"/>
+    </row>
+    <row r="80" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="9"/>
+    </row>
+    <row r="81" spans="1:2" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" s="11"/>
+    </row>
+    <row r="82" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="9"/>
+    </row>
+    <row r="83" spans="1:2" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" s="10"/>
+    </row>
+    <row r="84" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" s="9"/>
+    </row>
+    <row r="85" spans="1:2" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="10"/>
+    </row>
+    <row r="86" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B68" s="14"/>
-    </row>
-    <row r="69" spans="1:2" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B69" s="17"/>
-    </row>
-    <row r="70" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" s="14"/>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" s="17"/>
-    </row>
-    <row r="72" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="14"/>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73" s="17"/>
-    </row>
-    <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" s="14"/>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" s="17"/>
-    </row>
-    <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="14"/>
-    </row>
-    <row r="77" spans="1:2" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77" s="17"/>
-    </row>
-    <row r="78" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B78" s="14"/>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="17"/>
-    </row>
-    <row r="80" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B80" s="14"/>
-    </row>
-    <row r="81" spans="1:2" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="18"/>
-    </row>
-    <row r="82" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="14" t="s">
+      <c r="B86" s="9"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="14"/>
-    </row>
-    <row r="83" spans="1:2" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" s="17"/>
-    </row>
-    <row r="84" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B84" s="14"/>
-    </row>
-    <row r="85" spans="1:2" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B85" s="17"/>
-    </row>
-    <row r="86" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B86" s="14"/>
-    </row>
-    <row r="87" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B87" s="17"/>
+      <c r="B87" s="10"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A49:B49"/>
@@ -1652,23 +1657,16 @@
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documento de Diseño - ICE1.xlsx
+++ b/Documento de Diseño - ICE1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
   <si>
     <t>Planilla del Documento de Diseño</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Titulo</t>
   </si>
   <si>
-    <t>El titulo del juego, debe ser un nombre que capte la atencion del jugador y del lector del documento. A grandes rasgos, debe de incluir el concepto del juego. El titulo debe ser algo memorable.</t>
-  </si>
-  <si>
     <t>Estudio/Diseñadores</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Historial de versiones</t>
   </si>
   <si>
-    <t xml:space="preserve">El documento de Diseño es un artefacto que siempre estara sujeto a cambios, por lo tanto, un control para las diferentes versiones del documento y de los cambios que se han hecho es esencial. El numero de version varia de acuerdo a si es un cambio minimo o uno muy radical. el hitorial no se incluye en un documento que se somete a revicion por una empresa o grupo de desarrolladores debido a que incluye fechas, esto para evita que juzguen la idea del juego como un concepto viejo. </t>
-  </si>
-  <si>
     <t>Vision General del Juego</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>Controles</t>
   </si>
   <si>
-    <t>Describir los botones y teclas que invoquen las acciones mencionadas en la seccion de Mecanica del Juego.</t>
-  </si>
-  <si>
     <t>Puntaje</t>
   </si>
   <si>
@@ -134,12 +125,6 @@
     <t>Objetivos</t>
   </si>
   <si>
-    <t>Prograso</t>
-  </si>
-  <si>
-    <t>Enemigos</t>
-  </si>
-  <si>
     <t>Items</t>
   </si>
   <si>
@@ -222,153 +207,21 @@
   </si>
   <si>
     <t>Presupuesto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cuándo empieza la etapa de Producción del proyecto? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cuándo termina la etapa de Producción del proyecto? </t>
-  </si>
-  <si>
-    <t>Una estimación aproximada del presupuesto del juego.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antes de entrar a la etapa de Producción, se definen en el documento algunos detalles del proyecto. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información de las personas que trabajarán en el proyecto, incluye su nombre, el rol o roles que desempeñan y medios por los cuales se
-les puede contactar. </t>
   </si>
   <si>
     <t xml:space="preserve">Todas las imágenes que muestren algún posible nivel, personaje, objeto, etc., deben ser incluidas en esta sección y deben estar
 enumeradas y con título. </t>
   </si>
   <si>
-    <t xml:space="preserve">La música y/o sonidos que se usarán en el juego, nombre, descripción junto con un número de referencia. Si es música de fondo, la
-referencia debe de empezar con una ‘M’ seguida de un número en secuencia. Si es un efecto de sonido, empezar con ‘S’. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describir los códigos secretos que el jugador puede ingresar, lo que hacen y cómo son ingresados. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describir los varios logros o hitos que el jugador obtiene mientras progresa en el juego. Estos pueden otorgar medallas, personajes
-secretos o puntos extra. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta sección se incluyen todos los diálogos del juego. Estos pueden ser muy variantes o inexistentes dependiendo de la naturaleza del
-juego. El guión debe de incluir encabezados, nombres, diálogo, acción y transiciones. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todos los objetos especiales que ayudan al jugador a realizar los objetivos y progresar en el juego se mencionan aquí. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta sección se describen las armas que aparecerán en el juego. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los personajes y los enemigos llegan a tener ciertas habilidades fuera de las acciones comunes, en esta sección se describen cada una de
-ellas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enlistar los objetos del enemigo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El nombre de la pantalla, si es el Menú Principal o el H.U.D. (Heads-up Display). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Para qué sirve esta interface? </t>
-  </si>
-  <si>
-    <t>Enlistar todos los estados de juego que invoquen esta pantalla así como también los estados que se puedan invocar en ella.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Una imagen que muestre en concepto cómo se vería la pantalla. </t>
   </si>
   <si>
-    <t>El nombre del nivel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describir si es el primer nivel, un tutorial o un bonus, en otras palabras, ¿Cuándo es que el jugador llega a
-este nivel? </t>
-  </si>
-  <si>
-    <t>Una descripción detallada del nivel</t>
-  </si>
-  <si>
-    <t>¿Qué debe de hacer el jugador para terminar el nivel? Este campo también debe incluir si el jugador tiene que resolver ciertos acertijos o derrotar a cierto enemigo para progresar</t>
-  </si>
-  <si>
-    <t>Describir que ocurre cuando el jugador termina el nivel.</t>
-  </si>
-  <si>
-    <t>Si el nivel tiene enemigos que el jugador debe enfrentar, éstos se enlistan en este campo, de lo contrario este campo puede ser omitido.</t>
-  </si>
-  <si>
-    <t>Enlistar los objetos que el jugador o los enemigos pueden usar y que aparecen en este nivel, este campo se puede omitir si no existen dichos objetos</t>
-  </si>
-  <si>
-    <t>Los personajes que aparecen en el nivel, de igual manera, este campo puede ser omitido si no existen personajes en el juego.</t>
-  </si>
-  <si>
-    <t>Describir la música de este nivel al igual que los efectos de sonido de ambiente que contiene.</t>
-  </si>
-  <si>
-    <t>Escribir todas las referencias que apliquen con respecto a la música de fondo y efectos de sonido descritos en la sección de Música y Sonidos.</t>
-  </si>
-  <si>
-    <t>Enlistar de manera secuencial o por medio de un diagrama de flujo los eventos o niveles que el jugador debe de pasar para progresar en el juego. Existen juegos que tienen distintos modos de juego, en ese caso se requieren varias listas y/o diagramas.</t>
-  </si>
-  <si>
-    <t>Los personajes principales y secundarios que aparecerán en el juego. Esta sección se puede omitir si el juego no tiene personajes.</t>
-  </si>
-  <si>
-    <t>El nombre del personaje.</t>
-  </si>
-  <si>
-    <t>Describir detalladamente el físico del personaje, si es humano o extraterrestre, su vestimenta, etc</t>
-  </si>
-  <si>
     <t>Fotografía o dibujo conceptual del personaje.</t>
   </si>
   <si>
-    <t>Describir la conducta y comportamiento, al igual que los motivos del personaje. Mencionar también si es el enemigo principal o el protagonista. El concepto también puede relatarse como una historia del personaje, detallando en las relaciones con otros personajes del juego.</t>
-  </si>
-  <si>
-    <t>¿Cuándo aparece este personaje en el juego?</t>
-  </si>
-  <si>
-    <t>Enlistar las habilidades del personaje.</t>
-  </si>
-  <si>
-    <t>Enlistar las armas del personaje.</t>
-  </si>
-  <si>
-    <t>Enlistar los objetos del personaje.</t>
-  </si>
-  <si>
-    <t>Si el personaje no es controlable por el jugador, describir su propósito para el juego y/o para el jugador.</t>
-  </si>
-  <si>
-    <t>Los enemigos obstaculizan el progreso del jugador, pueden ser máquinas, otros personajes, monstruos, etc.</t>
-  </si>
-  <si>
-    <t>El nombre del enemigo.</t>
-  </si>
-  <si>
-    <t>Describir detalladamente el físico del enemigo así como también su comportamiento.</t>
-  </si>
-  <si>
-    <t>¿Cuándo aparece este enemigo en el juego?</t>
-  </si>
-  <si>
     <t>Fotografía o dibujo conceptual del enemigo.</t>
   </si>
   <si>
-    <t>Enlistar las habilidades del enemigo.</t>
-  </si>
-  <si>
-    <t>Enlistar las armas del enemigo.</t>
-  </si>
-  <si>
     <t>Enzo Medina</t>
   </si>
   <si>
@@ -381,9 +234,6 @@
     <t xml:space="preserve">Es un juego con similitudes al Mario Word,  Metal slug  </t>
   </si>
   <si>
-    <t>El Juego esta basado en un personaje heroe (jugador), que tiene que rescatar a una princesa de un Enemigo malvado</t>
-  </si>
-  <si>
     <t>El juego es de carácter original</t>
   </si>
   <si>
@@ -405,22 +255,163 @@
     <t>Este contara con una vision 2D horizontal movement</t>
   </si>
   <si>
-    <t>pro el momento el jugador debera utilizar el teclado del orenador para poder interactuar con el juego</t>
-  </si>
-  <si>
     <t>al finalizar el juego, ya sea por haberlo completado o haber perdido la vida al jugador se les computara las monedas y objetos de valor que hallo como puntaje personal que obtuvo en el videojuego</t>
   </si>
   <si>
     <t xml:space="preserve">el Jugador tendra la obcion de hacer un ackup de sus logros en cualquier instante del juego, por otra parte el mismo juego guardara sus logros al salir de la aplicación con la condicion de llegar a un punto de control, y cuando acceda nuevamente a la aplicacion el jugador podra elegir su partida guardada desde su ubicacion personal o tendra la obcion de continual la partida en donde habia llegado al punto de control. </t>
   </si>
   <si>
-    <t>Las interfaces dan la pauta a la interactividad que tiene el jugador con el juego, en esta seccion se debe describir la apariencia del juego, es decir, colores y tematica. Es importante dejar una impresión visual en el jugador y obviamente debe de estar relacionada con el concepto del</t>
-  </si>
-  <si>
     <t xml:space="preserve">el juego tendra una pantalla inicial o menu del juego en el cual tendra las opciones de: Jugar al VideoJuego, Cargar y Salir, y en caso de que halla una partida guardada por el VideoJuego tendra la opcion de Continuar. </t>
   </si>
   <si>
     <t>el juego constara de un solo nivel que amedida que pase el jugador por los puntos de control se aumentara un cirto grado de dificultad</t>
+  </si>
+  <si>
+    <t>por el momento el jugador debera utilizar el teclado del orenador para poder interactuar con el juego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por ahora el juego como se descrive en modulos anteriores sera simple con colores claros, utilizara una tematica parecida a Super Mario sin complicaciones, los personajes seran en 2D y algunos objetos tendran pequeños detalles de sombra  </t>
+  </si>
+  <si>
+    <t>lel juego tendra 2 pantallas el menu principal y la del juego mismo la primera se llamara Main y  la segunda Play</t>
+  </si>
+  <si>
+    <t>la pantalla principal servira para administrar el juego(cargar, continuar, jugar, salir) y la segunda sera el juego propiamente dicho</t>
+  </si>
+  <si>
+    <t>la pantalla principal estara invocada de 2 maneras la primera al iniciar y la segunda al pausar el juego utilizando una tecla especial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para poder cumplir sus objetivos el jugador utilizara las acciones vasicas movece hacia la derecha e izquierda utilizando las teclas de direccion que indicn hacia la derecha/ izquierda del teclado luego para saltar utilizara la tecla espacio, para disparar utilizara la tecla x. y para pausar el juego se utilizara la tecla Esc.(en discucion P) </t>
+  </si>
+  <si>
+    <t>Nivel1</t>
+  </si>
+  <si>
+    <t>el jugador se topara con todos los obstaculos en el cual podra o no escapar y con todos los enemigos incluso el principal.</t>
+  </si>
+  <si>
+    <t>en este nivel se desarrollara todo el juego, al principio se vera disminuido la dificultad y  a medida que el jugador avance sera elevada</t>
+  </si>
+  <si>
+    <t>Progreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>el nivel tendra enemigos con diferentes dificultades y con 2 maneras de desplazamiento, terrestre y aereo.</t>
+  </si>
+  <si>
+    <t>el usuario vera en este nivel bloques simulando ser ladrillos que tendran o no funcione especificas asi tambien encontrara otros como nuves y monedas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el nivel contara con musica de fondo de acuerdo a los distintos momentos y acciones del jugador o objeto(una como principal del juego, la 2da en el menu, la 3ra cuando se encuentre con enemigos, la 4ta cuando gana y la ultima cuando muere el jugador. </t>
+  </si>
+  <si>
+    <t>por el momento el avance de la creacion del VideoJuego cuenta con el diseño del documento y capacitaciones para el diseño del mismo.</t>
+  </si>
+  <si>
+    <t>el personaje estara en todo momento salvo cuando pierda el juego</t>
+  </si>
+  <si>
+    <t>el personaje podra moverse de izquierda a derecha, podra saltar y disparar objetos</t>
+  </si>
+  <si>
+    <t>el personaje contara con una arma tipo escopeta.</t>
+  </si>
+  <si>
+    <t>el personaje no tendra objetos</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sera un soldado extraterestre con apariencia casi humana </t>
+  </si>
+  <si>
+    <t>el personaje aparecera al final</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el personaje podra luchar y disparar </t>
+  </si>
+  <si>
+    <t>poseera una arma extraterreste</t>
+  </si>
+  <si>
+    <t>no se considero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enemigo final, como enemigos secundarios seran soldaditos.</t>
+  </si>
+  <si>
+    <t>los personaajes podran esquivar y disparar objetos</t>
+  </si>
+  <si>
+    <t>las armas seran del tipo extraterrestre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se encontraran bloques de ladrillos, algunos con funciones especiales, nuves, naves espaciales y objetos de valor para el jugador (monedas y vidas) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">por el momento no habra dialodos </t>
+  </si>
+  <si>
+    <t>el jugador al ir avansando encontrara objetos de valor tales como monedas que aumentran su puntaje y vidas que recuperaran la vida del jugador si la necesitara si no se computara como vida extra a la hora de luchar contra el enemigo principal.</t>
+  </si>
+  <si>
+    <t>no habra codigos secretos</t>
+  </si>
+  <si>
+    <t>por el momento el proyecto sera desarrollado por el autor principal Enzo Medina</t>
+  </si>
+  <si>
+    <t>no hay detalles por comentar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muchas ganas y esfuerzo </t>
+  </si>
+  <si>
+    <t>por el momento solamente se cuenta con la version 0.9 que cuenta solamente con el documento de diseño</t>
+  </si>
+  <si>
+    <t>El Juego esta basado en un personaje heroe (jugador), que tiene que rescatar a un pricionero de un Enemigo malvado</t>
+  </si>
+  <si>
+    <t>para terminar el nivel el jugador debera llegar a la linea de meta y derrotar al enemigo principal para rescatar al pricionero.</t>
+  </si>
+  <si>
+    <t>cuando el jugador termina el nivel terminara el juego  computando sus logros.</t>
+  </si>
+  <si>
+    <t>los personajes que se destacan en este nivel seran: el jugador propiamente dicho, los enemigos comunes y el principal. Y el pricionero</t>
+  </si>
+  <si>
+    <t>no se definira por el momento</t>
+  </si>
+  <si>
+    <t>El personaje principal sera: el jugador y como personaje tercero sera el pricionero</t>
+  </si>
+  <si>
+    <t>Benjamin-Hunter allien's</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>el personaje sera un hombre casador de recompenzas que decide rescatar a un pricionero.</t>
+  </si>
+  <si>
+    <t>sera el personaje principal el cual sera controlado por el jugador</t>
+  </si>
+  <si>
+    <t>04 de Abril del 2016</t>
+  </si>
+  <si>
+    <t>30 de mayo de 2020</t>
   </si>
 </sst>
 </file>
@@ -644,7 +635,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -660,23 +651,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,6 +666,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -975,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B35"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,664 +978,657 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:2" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" spans="1:2" ht="43.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2" ht="43.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="13"/>
-    </row>
-    <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="16"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="13"/>
+      <c r="A20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="12"/>
+      <c r="A26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="16"/>
     </row>
     <row r="27" spans="1:2" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="13"/>
+      <c r="A27" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9"/>
+      <c r="A28" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" spans="1:2" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="13"/>
+      <c r="A29" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="9"/>
+      <c r="A34" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="15"/>
     </row>
     <row r="35" spans="1:2" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="13"/>
+      <c r="A35" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="9"/>
+      <c r="A46" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="15"/>
     </row>
     <row r="47" spans="1:2" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="14"/>
+      <c r="B47" s="17"/>
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="9"/>
+      <c r="A48" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="15"/>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="10"/>
+      <c r="A49" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="18"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="12"/>
+      <c r="A59" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="16"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="10"/>
+      <c r="A60" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="18"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="15"/>
+    </row>
+    <row r="69" spans="1:2" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="18"/>
+    </row>
+    <row r="70" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="15"/>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="18"/>
+    </row>
+    <row r="72" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="15"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="18"/>
+    </row>
+    <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="15"/>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="18"/>
+    </row>
+    <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" s="15"/>
+    </row>
+    <row r="77" spans="1:2" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="18"/>
+    </row>
+    <row r="78" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="9"/>
-    </row>
-    <row r="69" spans="1:2" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="10"/>
-    </row>
-    <row r="70" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="9" t="s">
+      <c r="B78" s="15"/>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="18"/>
+    </row>
+    <row r="80" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="9"/>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" s="10"/>
-    </row>
-    <row r="72" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="9" t="s">
+      <c r="B80" s="15"/>
+    </row>
+    <row r="81" spans="1:2" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="19"/>
+    </row>
+    <row r="82" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="9"/>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="10"/>
-    </row>
-    <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="9" t="s">
+      <c r="B82" s="15"/>
+    </row>
+    <row r="83" spans="1:2" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83" s="18"/>
+    </row>
+    <row r="84" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="9"/>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" s="10"/>
-    </row>
-    <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="9" t="s">
+      <c r="B84" s="15"/>
+    </row>
+    <row r="85" spans="1:2" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="18"/>
+    </row>
+    <row r="86" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B76" s="9"/>
-    </row>
-    <row r="77" spans="1:2" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="10"/>
-    </row>
-    <row r="78" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="9"/>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B79" s="10"/>
-    </row>
-    <row r="80" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B80" s="9"/>
-    </row>
-    <row r="81" spans="1:2" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B81" s="11"/>
-    </row>
-    <row r="82" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="9"/>
-    </row>
-    <row r="83" spans="1:2" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B83" s="10"/>
-    </row>
-    <row r="84" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" s="9"/>
-    </row>
-    <row r="85" spans="1:2" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" s="10"/>
-    </row>
-    <row r="86" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B86" s="9"/>
+      <c r="B86" s="15"/>
     </row>
     <row r="87" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="10"/>
+      <c r="A87" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" s="18"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A49:B49"/>
@@ -1657,16 +1642,23 @@
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
